--- a/configure/xlsx/game.xlsx
+++ b/configure/xlsx/game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="赛事配置表" sheetId="6" r:id="rId1"/>
@@ -1158,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1514,7 +1514,7 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/configure/xlsx/game.xlsx
+++ b/configure/xlsx/game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="赛事配置表" sheetId="6" r:id="rId1"/>
@@ -1158,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1514,8 +1514,8 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
